--- a/medicine/Mort/Cimetière_communal_du_Blanc-Mesnil/Cimetière_communal_du_Blanc-Mesnil.xlsx
+++ b/medicine/Mort/Cimetière_communal_du_Blanc-Mesnil/Cimetière_communal_du_Blanc-Mesnil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_du_Blanc-Mesnil</t>
+          <t>Cimetière_communal_du_Blanc-Mesnil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière communal du Blanc-Mesnil est le lieu de sépulture de la commune du Blanc-Mesnil en Seine-Saint-Denis[1]. Il est situé au 180, avenue Descartes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière communal du Blanc-Mesnil est le lieu de sépulture de la commune du Blanc-Mesnil en Seine-Saint-Denis. Il est situé au 180, avenue Descartes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_du_Blanc-Mesnil</t>
+          <t>Cimetière_communal_du_Blanc-Mesnil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des défunts de nombreuses confessions y sont enterrés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des défunts de nombreuses confessions y sont enterrés.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_du_Blanc-Mesnil</t>
+          <t>Cimetière_communal_du_Blanc-Mesnil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1950, il a été aménagé et agrandi par les architectes Albert Michaut et André Lurçat[3].
-Une entrée surmontée d'un arc en plein cintre[4] a alors été construite. Le cimetière est agrandi dans les années 1990.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1950, il a été aménagé et agrandi par les architectes Albert Michaut et André Lurçat.
+Une entrée surmontée d'un arc en plein cintre a alors été construite. Le cimetière est agrandi dans les années 1990.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_du_Blanc-Mesnil</t>
+          <t>Cimetière_communal_du_Blanc-Mesnil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pierre Quémener, mort pour la France[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pierre Quémener, mort pour la France.</t>
         </is>
       </c>
     </row>
